--- a/resources/Complete OPRs.xlsx
+++ b/resources/Complete OPRs.xlsx
@@ -486,7 +486,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -495,10 +495,13 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -562,8 +565,8 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H88" totalsRowShown="0" headerRowDxfId="2">
   <autoFilter ref="A1:H88"/>
-  <sortState ref="A2:H88">
-    <sortCondition ref="D1:D88"/>
+  <sortState ref="A7:H82">
+    <sortCondition ref="E1:E88"/>
   </sortState>
   <tableColumns count="8">
     <tableColumn id="1" name="Team#"/>
@@ -844,8 +847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -888,53 +891,71 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>548</v>
+        <v>4216</v>
       </c>
       <c r="B2" s="2">
-        <v>-4.78</v>
+        <v>169.18</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s">
         <v>49</v>
       </c>
       <c r="E2" t="s">
         <v>49</v>
+      </c>
+      <c r="G2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>4156</v>
-      </c>
-      <c r="B3" s="2">
-        <v>27.23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>35</v>
+        <v>7390</v>
+      </c>
+      <c r="B3">
+        <v>144.32</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>49</v>
+        <v>58</v>
+      </c>
+      <c r="E3" s="8">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G3" t="s">
+        <v>101</v>
+      </c>
+      <c r="H3" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>4216</v>
-      </c>
-      <c r="B4" s="2">
-        <v>169.18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>36</v>
+        <v>9784</v>
+      </c>
+      <c r="B4">
+        <v>139.08000000000001</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="D4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" t="s">
-        <v>49</v>
+        <v>58</v>
+      </c>
+      <c r="E4" s="11">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>93</v>
       </c>
       <c r="G4" t="s">
         <v>101</v>
@@ -944,270 +965,333 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>5211</v>
+      <c r="A5" s="2">
+        <v>7316</v>
       </c>
       <c r="B5" s="2">
-        <v>22.17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>37</v>
+        <v>114.04</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="D5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" t="s">
-        <v>49</v>
+        <v>87</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2</v>
+      </c>
+      <c r="F5" t="s">
+        <v>106</v>
+      </c>
+      <c r="G5" t="s">
+        <v>101</v>
+      </c>
+      <c r="H5" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>6949</v>
-      </c>
-      <c r="B6" s="2">
-        <v>32.270000000000003</v>
-      </c>
-      <c r="C6" t="s">
-        <v>38</v>
+        <v>7854</v>
+      </c>
+      <c r="B6">
+        <v>97.79</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>111</v>
       </c>
       <c r="D6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E6" t="s">
-        <v>49</v>
+        <v>30</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G6" t="s">
+        <v>101</v>
+      </c>
+      <c r="H6" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>7175</v>
-      </c>
-      <c r="B7" s="2">
-        <v>42.44</v>
-      </c>
-      <c r="C7" t="s">
-        <v>39</v>
+        <v>12869</v>
+      </c>
+      <c r="B7">
+        <v>70.16</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>49</v>
+        <v>29</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>91</v>
       </c>
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>7303</v>
+      <c r="A8" s="2">
+        <v>13230</v>
       </c>
       <c r="B8" s="2">
-        <v>51.7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>40</v>
+        <v>153.07</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>85</v>
       </c>
       <c r="D8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E8" t="s">
-        <v>49</v>
+        <v>87</v>
+      </c>
+      <c r="E8" s="6">
+        <v>9</v>
+      </c>
+      <c r="F8" t="s">
+        <v>107</v>
+      </c>
+      <c r="G8" t="s">
+        <v>101</v>
       </c>
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>8367</v>
-      </c>
-      <c r="B9" s="2">
-        <v>73.23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>41</v>
+        <v>11575</v>
+      </c>
+      <c r="B9">
+        <v>123.74</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>49</v>
-      </c>
-      <c r="E9" t="s">
-        <v>49</v>
+        <v>30</v>
+      </c>
+      <c r="E9" s="1">
+        <v>4</v>
+      </c>
+      <c r="F9" t="s">
+        <v>100</v>
       </c>
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>10717</v>
-      </c>
-      <c r="B10" s="2">
-        <v>33.35</v>
-      </c>
-      <c r="C10" t="s">
-        <v>42</v>
+        <v>6165</v>
+      </c>
+      <c r="B10">
+        <v>116.06</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="D10" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>49</v>
+        <v>58</v>
+      </c>
+      <c r="E10" s="11">
+        <v>5</v>
+      </c>
+      <c r="F10" t="s">
+        <v>100</v>
       </c>
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>10794</v>
-      </c>
-      <c r="B11" s="2">
-        <v>63.72</v>
-      </c>
-      <c r="C11" t="s">
-        <v>43</v>
+        <v>7641</v>
+      </c>
+      <c r="B11">
+        <v>107.22</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>49</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>49</v>
+        <v>30</v>
+      </c>
+      <c r="E11" s="1">
+        <v>2</v>
+      </c>
+      <c r="F11" t="s">
+        <v>93</v>
       </c>
       <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>11256</v>
-      </c>
-      <c r="B12" s="2">
-        <v>10.039999999999999</v>
-      </c>
-      <c r="C12" t="s">
-        <v>44</v>
+        <v>9914</v>
+      </c>
+      <c r="B12">
+        <v>94.03</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="D12" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>49</v>
+        <v>58</v>
+      </c>
+      <c r="E12" s="8">
+        <v>3</v>
+      </c>
+      <c r="F12" t="s">
+        <v>94</v>
       </c>
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>11363</v>
+      <c r="A13" s="2">
+        <v>9614</v>
       </c>
       <c r="B13" s="2">
-        <v>52.69</v>
-      </c>
-      <c r="C13" t="s">
-        <v>45</v>
+        <v>92.93</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="D13" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" t="s">
-        <v>49</v>
+        <v>87</v>
+      </c>
+      <c r="E13" s="1">
+        <v>3</v>
+      </c>
+      <c r="F13" t="s">
+        <v>95</v>
       </c>
       <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>11387</v>
+      <c r="A14" s="2">
+        <v>11311</v>
       </c>
       <c r="B14" s="2">
-        <v>28.59</v>
-      </c>
-      <c r="C14" t="s">
-        <v>24</v>
+        <v>92.25</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>77</v>
       </c>
       <c r="D14" t="s">
-        <v>49</v>
-      </c>
-      <c r="E14" t="s">
-        <v>49</v>
+        <v>87</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>91</v>
       </c>
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>11574</v>
-      </c>
-      <c r="B15" s="2">
-        <v>43</v>
-      </c>
-      <c r="C15" t="s">
-        <v>46</v>
+        <v>8872</v>
+      </c>
+      <c r="B15">
+        <v>76.17</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>49</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>49</v>
+        <v>30</v>
+      </c>
+      <c r="E15" s="1">
+        <v>12</v>
+      </c>
+      <c r="F15" t="s">
+        <v>94</v>
+      </c>
+      <c r="G15" t="s">
+        <v>101</v>
       </c>
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>12684</v>
+        <v>8367</v>
       </c>
       <c r="B16" s="2">
-        <v>64.45</v>
+        <v>73.23</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D16" t="s">
         <v>49</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" t="s">
         <v>49</v>
       </c>
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>13228</v>
+      <c r="A17" s="2">
+        <v>8865</v>
       </c>
       <c r="B17" s="2">
-        <v>22.33</v>
-      </c>
-      <c r="C17" t="s">
-        <v>48</v>
+        <v>71.900000000000006</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>67</v>
       </c>
       <c r="D17" t="s">
-        <v>49</v>
-      </c>
-      <c r="E17" t="s">
-        <v>49</v>
+        <v>87</v>
+      </c>
+      <c r="E17" s="6">
+        <v>11</v>
+      </c>
+      <c r="F17" t="s">
+        <v>89</v>
+      </c>
+      <c r="G17" t="s">
+        <v>101</v>
       </c>
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>2891</v>
+        <v>9965</v>
       </c>
       <c r="B18">
-        <v>-8.06</v>
+        <v>70.84</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D18" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="1">
-        <v>15</v>
+      <c r="E18" s="6">
+        <v>5</v>
+      </c>
+      <c r="F18" t="s">
+        <v>90</v>
       </c>
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>4998</v>
+        <v>13356</v>
       </c>
       <c r="B19">
-        <v>40.08</v>
+        <v>55.59</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D19" t="s">
-        <v>30</v>
-      </c>
-      <c r="E19" s="7">
-        <v>9</v>
+        <v>29</v>
+      </c>
+      <c r="E19" s="1">
+        <v>2</v>
+      </c>
+      <c r="F19" t="s">
+        <v>92</v>
       </c>
       <c r="I19" s="1"/>
     </row>
@@ -1233,92 +1317,83 @@
       <c r="I20" s="1"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>7641</v>
-      </c>
-      <c r="B21">
-        <v>107.22</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>3</v>
+      <c r="A21" s="2">
+        <v>6982</v>
+      </c>
+      <c r="B21" s="2">
+        <v>68.72</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="D21" t="s">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="E21" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F21" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>7854</v>
+        <v>5214</v>
       </c>
       <c r="B22">
-        <v>97.79</v>
+        <v>66.959999999999994</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>111</v>
+        <v>50</v>
       </c>
       <c r="D22" t="s">
-        <v>30</v>
-      </c>
-      <c r="E22" s="1">
-        <v>1</v>
+        <v>58</v>
+      </c>
+      <c r="E22" s="8">
+        <v>7</v>
       </c>
       <c r="F22" t="s">
-        <v>99</v>
-      </c>
-      <c r="G22" t="s">
-        <v>101</v>
-      </c>
-      <c r="H22" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="I22" s="1"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>8375</v>
-      </c>
-      <c r="B23">
-        <v>65.150000000000006</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>4</v>
+      <c r="A23" s="2">
+        <v>13345</v>
+      </c>
+      <c r="B23" s="2">
+        <v>66.31</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>86</v>
       </c>
       <c r="D23" t="s">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="E23" s="1">
-        <v>7</v>
-      </c>
-      <c r="G23" t="s">
-        <v>101</v>
+        <v>13</v>
+      </c>
+      <c r="F23" t="s">
+        <v>108</v>
       </c>
       <c r="I23" s="1"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>8872</v>
+        <v>8375</v>
       </c>
       <c r="B24">
-        <v>76.17</v>
+        <v>65.150000000000006</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D24" t="s">
         <v>30</v>
       </c>
       <c r="E24" s="1">
-        <v>12</v>
-      </c>
-      <c r="F24" t="s">
-        <v>94</v>
+        <v>7</v>
       </c>
       <c r="G24" t="s">
         <v>101</v>
@@ -1327,1216 +1402,1144 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>9965</v>
-      </c>
-      <c r="B25">
-        <v>70.84</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>6</v>
+        <v>12684</v>
+      </c>
+      <c r="B25" s="2">
+        <v>64.45</v>
+      </c>
+      <c r="C25" t="s">
+        <v>47</v>
       </c>
       <c r="D25" t="s">
-        <v>30</v>
-      </c>
-      <c r="E25" s="7">
-        <v>5</v>
-      </c>
-      <c r="F25" t="s">
-        <v>90</v>
+        <v>49</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="I25" s="1"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>10023</v>
-      </c>
-      <c r="B26">
-        <v>35.270000000000003</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>7</v>
+      <c r="A26" s="2">
+        <v>8404</v>
+      </c>
+      <c r="B26" s="2">
+        <v>64.400000000000006</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="D26" t="s">
-        <v>30</v>
-      </c>
-      <c r="E26" s="7">
-        <v>6</v>
-      </c>
-      <c r="F26" t="s">
-        <v>89</v>
+        <v>87</v>
+      </c>
+      <c r="E26" s="1">
+        <v>16</v>
+      </c>
+      <c r="G26" t="s">
+        <v>101</v>
       </c>
       <c r="I26" s="1"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>11575</v>
-      </c>
-      <c r="B27">
-        <v>123.74</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>8</v>
+        <v>10794</v>
+      </c>
+      <c r="B27" s="2">
+        <v>63.72</v>
+      </c>
+      <c r="C27" t="s">
+        <v>43</v>
       </c>
       <c r="D27" t="s">
-        <v>30</v>
-      </c>
-      <c r="E27" s="1">
-        <v>4</v>
-      </c>
-      <c r="F27" t="s">
-        <v>100</v>
+        <v>49</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="I27" s="1"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>11895</v>
-      </c>
-      <c r="B28">
-        <v>29.45</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>9</v>
+      <c r="A28" s="2">
+        <v>4345</v>
+      </c>
+      <c r="B28" s="2">
+        <v>58.25</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="D28" t="s">
-        <v>30</v>
-      </c>
-      <c r="E28" s="7">
-        <v>14</v>
+        <v>87</v>
+      </c>
+      <c r="E28" s="1">
+        <v>26</v>
       </c>
       <c r="I28" s="1"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>12804</v>
+        <v>11387</v>
       </c>
       <c r="B29">
-        <v>4.3</v>
+        <v>37.14</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D29" t="s">
-        <v>30</v>
-      </c>
-      <c r="E29" s="1">
+        <v>29</v>
+      </c>
+      <c r="E29" s="6">
         <v>3</v>
       </c>
       <c r="F29" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I29" s="1"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>12962</v>
-      </c>
-      <c r="B30">
-        <v>6.64</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>11</v>
+      <c r="A30" s="2">
+        <v>11201</v>
+      </c>
+      <c r="B30" s="2">
+        <v>53.15</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="D30" t="s">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="E30" s="1">
-        <v>16</v>
+        <v>4</v>
+      </c>
+      <c r="F30" t="s">
+        <v>92</v>
       </c>
       <c r="I30" s="1"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>13101</v>
-      </c>
-      <c r="B31">
-        <v>32.26</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>12</v>
+        <v>11363</v>
+      </c>
+      <c r="B31" s="2">
+        <v>52.69</v>
+      </c>
+      <c r="C31" t="s">
+        <v>45</v>
       </c>
       <c r="D31" t="s">
-        <v>30</v>
-      </c>
-      <c r="E31" s="7">
-        <v>10</v>
+        <v>49</v>
+      </c>
+      <c r="E31" t="s">
+        <v>49</v>
       </c>
       <c r="I31" s="1"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>13326</v>
-      </c>
-      <c r="B32">
-        <v>26.37</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>13</v>
+        <v>7303</v>
+      </c>
+      <c r="B32" s="2">
+        <v>51.7</v>
+      </c>
+      <c r="C32" t="s">
+        <v>40</v>
       </c>
       <c r="D32" t="s">
-        <v>30</v>
-      </c>
-      <c r="E32" s="1">
-        <v>13</v>
+        <v>49</v>
+      </c>
+      <c r="E32" t="s">
+        <v>49</v>
       </c>
       <c r="I32" s="1"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>13328</v>
-      </c>
-      <c r="B33">
-        <v>12.85</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>14</v>
+      <c r="A33" s="2">
+        <v>6148</v>
+      </c>
+      <c r="B33" s="2">
+        <v>51.03</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="D33" t="s">
-        <v>30</v>
-      </c>
-      <c r="E33" s="1">
-        <v>11</v>
+        <v>87</v>
+      </c>
+      <c r="E33" s="6">
+        <v>23</v>
+      </c>
+      <c r="F33" t="s">
+        <v>104</v>
       </c>
       <c r="I33" s="1"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>5214</v>
-      </c>
-      <c r="B34">
-        <v>66.959999999999994</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>50</v>
+      <c r="A34" s="2">
+        <v>11101</v>
+      </c>
+      <c r="B34" s="2">
+        <v>48.16</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="D34" t="s">
-        <v>58</v>
-      </c>
-      <c r="E34" s="5">
-        <v>7</v>
-      </c>
-      <c r="F34" t="s">
-        <v>96</v>
+        <v>87</v>
+      </c>
+      <c r="E34" s="9">
+        <v>10</v>
       </c>
       <c r="I34" s="1"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>6165</v>
+        <v>11920</v>
       </c>
       <c r="B35">
-        <v>116.06</v>
+        <v>75.47</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>51</v>
+        <v>112</v>
       </c>
       <c r="D35" t="s">
-        <v>58</v>
-      </c>
-      <c r="E35" s="6">
-        <v>5</v>
+        <v>29</v>
+      </c>
+      <c r="E35" s="9">
+        <v>4</v>
       </c>
       <c r="F35" t="s">
-        <v>100</v>
+        <v>97</v>
+      </c>
+      <c r="G35" t="s">
+        <v>101</v>
+      </c>
+      <c r="H35" t="s">
+        <v>109</v>
       </c>
       <c r="I35" s="1"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>7390</v>
+        <v>13162</v>
       </c>
       <c r="B36">
-        <v>144.32</v>
+        <v>44.19</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D36" t="s">
         <v>58</v>
       </c>
       <c r="E36" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F36" t="s">
-        <v>99</v>
-      </c>
-      <c r="G36" t="s">
-        <v>101</v>
-      </c>
-      <c r="H36" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>9784</v>
-      </c>
-      <c r="B37">
-        <v>139.08000000000001</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>53</v>
+        <v>11574</v>
+      </c>
+      <c r="B37" s="2">
+        <v>43</v>
+      </c>
+      <c r="C37" t="s">
+        <v>46</v>
       </c>
       <c r="D37" t="s">
-        <v>58</v>
-      </c>
-      <c r="E37" s="6">
-        <v>2</v>
-      </c>
-      <c r="F37" t="s">
-        <v>93</v>
-      </c>
-      <c r="G37" t="s">
-        <v>101</v>
-      </c>
-      <c r="H37" t="s">
-        <v>109</v>
+        <v>49</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>9914</v>
-      </c>
-      <c r="B38">
-        <v>94.03</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>54</v>
+        <v>7175</v>
+      </c>
+      <c r="B38" s="2">
+        <v>42.44</v>
+      </c>
+      <c r="C38" t="s">
+        <v>39</v>
       </c>
       <c r="D38" t="s">
-        <v>58</v>
-      </c>
-      <c r="E38" s="5">
-        <v>3</v>
-      </c>
-      <c r="F38" t="s">
-        <v>94</v>
+        <v>49</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>11689</v>
-      </c>
-      <c r="B39">
-        <v>-3.42</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>55</v>
+      <c r="A39" s="2">
+        <v>10150</v>
+      </c>
+      <c r="B39" s="2">
+        <v>41.68</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="D39" t="s">
-        <v>58</v>
-      </c>
-      <c r="E39" s="6">
-        <v>11</v>
+        <v>87</v>
+      </c>
+      <c r="E39" s="9">
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>13162</v>
+        <v>4998</v>
       </c>
       <c r="B40">
-        <v>44.19</v>
+        <v>40.08</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>58</v>
-      </c>
-      <c r="E40" s="5">
-        <v>4</v>
-      </c>
-      <c r="F40" t="s">
-        <v>95</v>
+        <v>30</v>
+      </c>
+      <c r="E40" s="9">
+        <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>13215</v>
-      </c>
-      <c r="B41">
-        <v>24.12</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>18</v>
+      <c r="A41" s="2">
+        <v>13117</v>
+      </c>
+      <c r="B41" s="2">
+        <v>39.840000000000003</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="D41" t="s">
-        <v>58</v>
-      </c>
-      <c r="E41" s="6">
-        <v>9</v>
+        <v>87</v>
+      </c>
+      <c r="E41" s="9">
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>13216</v>
+        <v>13219</v>
       </c>
       <c r="B42">
-        <v>27.92</v>
+        <v>39.770000000000003</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="D42" t="s">
         <v>58</v>
       </c>
       <c r="E42" s="5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F42" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>13218</v>
+        <v>12027</v>
       </c>
       <c r="B43">
-        <v>12.22</v>
+        <v>9.85</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D43" t="s">
-        <v>58</v>
-      </c>
-      <c r="E43" s="6">
-        <v>10</v>
+        <v>29</v>
+      </c>
+      <c r="E43" s="9">
+        <v>5</v>
+      </c>
+      <c r="F43" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>13219</v>
+        <v>9657</v>
       </c>
       <c r="B44">
-        <v>39.770000000000003</v>
+        <v>32.49</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D44" t="s">
-        <v>58</v>
-      </c>
-      <c r="E44" s="9">
+        <v>29</v>
+      </c>
+      <c r="E44" s="12">
         <v>6</v>
       </c>
       <c r="F44" t="s">
-        <v>90</v>
+        <v>94</v>
+      </c>
+      <c r="G44" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45" s="2">
-        <v>4345</v>
-      </c>
-      <c r="B45" s="2">
-        <v>58.25</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>59</v>
+      <c r="A45">
+        <v>13035</v>
+      </c>
+      <c r="B45">
+        <v>20.69</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="D45" t="s">
-        <v>87</v>
+        <v>29</v>
       </c>
       <c r="E45" s="1">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46" s="2">
-        <v>4475</v>
-      </c>
-      <c r="B46" s="2">
-        <v>34.78</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>60</v>
+      <c r="A46">
+        <v>10023</v>
+      </c>
+      <c r="B46">
+        <v>35.270000000000003</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="D46" t="s">
-        <v>87</v>
-      </c>
-      <c r="E46" s="7">
+        <v>30</v>
+      </c>
+      <c r="E46" s="6">
         <v>6</v>
       </c>
       <c r="F46" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
+        <v>4475</v>
+      </c>
+      <c r="B47" s="2">
+        <v>34.78</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D47" t="s">
+        <v>87</v>
+      </c>
+      <c r="E47" s="6">
+        <v>6</v>
+      </c>
+      <c r="F47" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>10717</v>
+      </c>
+      <c r="B48" s="2">
+        <v>33.35</v>
+      </c>
+      <c r="C48" t="s">
+        <v>42</v>
+      </c>
+      <c r="D48" t="s">
+        <v>49</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>10163</v>
+      </c>
+      <c r="B49">
+        <v>44.48</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D49" t="s">
+        <v>29</v>
+      </c>
+      <c r="E49" s="6">
+        <v>8</v>
+      </c>
+      <c r="F49" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>6949</v>
+      </c>
+      <c r="B50" s="2">
+        <v>32.270000000000003</v>
+      </c>
+      <c r="C50" t="s">
+        <v>38</v>
+      </c>
+      <c r="D50" t="s">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>13101</v>
+      </c>
+      <c r="B51">
+        <v>32.26</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" t="s">
+        <v>30</v>
+      </c>
+      <c r="E51" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="2">
+        <v>11039</v>
+      </c>
+      <c r="B52" s="2">
+        <v>30.95</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D52" t="s">
+        <v>87</v>
+      </c>
+      <c r="E52" s="6">
+        <v>5</v>
+      </c>
+      <c r="F52" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>11895</v>
+      </c>
+      <c r="B53">
+        <v>29.45</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" t="s">
+        <v>30</v>
+      </c>
+      <c r="E53" s="6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>11387</v>
+      </c>
+      <c r="B54" s="2">
+        <v>28.59</v>
+      </c>
+      <c r="C54" t="s">
+        <v>24</v>
+      </c>
+      <c r="D54" t="s">
+        <v>49</v>
+      </c>
+      <c r="E54" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>13216</v>
+      </c>
+      <c r="B55">
+        <v>27.92</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D55" t="s">
+        <v>58</v>
+      </c>
+      <c r="E55" s="8">
+        <v>8</v>
+      </c>
+      <c r="F55" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>13218</v>
+      </c>
+      <c r="B56">
+        <v>27.66</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D56" t="s">
+        <v>29</v>
+      </c>
+      <c r="E56" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>4156</v>
+      </c>
+      <c r="B57" s="2">
+        <v>27.23</v>
+      </c>
+      <c r="C57" t="s">
+        <v>35</v>
+      </c>
+      <c r="D57" t="s">
+        <v>49</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>13326</v>
+      </c>
+      <c r="B58">
+        <v>26.37</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D58" t="s">
+        <v>30</v>
+      </c>
+      <c r="E58" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="2">
+        <v>13050</v>
+      </c>
+      <c r="B59" s="2">
+        <v>25.75</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D59" t="s">
+        <v>87</v>
+      </c>
+      <c r="E59" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>12105</v>
+      </c>
+      <c r="B60">
+        <v>39.39</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D60" t="s">
+        <v>29</v>
+      </c>
+      <c r="E60" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" s="2">
+        <v>10148</v>
+      </c>
+      <c r="B61" s="2">
+        <v>25.12</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D61" t="s">
+        <v>87</v>
+      </c>
+      <c r="E61" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" s="2">
+        <v>9578</v>
+      </c>
+      <c r="B62" s="2">
+        <v>24.41</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D62" t="s">
+        <v>87</v>
+      </c>
+      <c r="E62" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>13215</v>
+      </c>
+      <c r="B63">
+        <v>24.12</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D63" t="s">
+        <v>58</v>
+      </c>
+      <c r="E63" s="11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" s="2">
+        <v>13220</v>
+      </c>
+      <c r="B64" s="2">
+        <v>23.49</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D64" t="s">
+        <v>87</v>
+      </c>
+      <c r="E64" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" s="2">
+        <v>12009</v>
+      </c>
+      <c r="B65" s="2">
+        <v>23.35</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D65" t="s">
+        <v>87</v>
+      </c>
+      <c r="E65" s="1">
+        <v>12</v>
+      </c>
+      <c r="F65" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>13228</v>
+      </c>
+      <c r="B66" s="2">
+        <v>22.33</v>
+      </c>
+      <c r="C66" t="s">
+        <v>48</v>
+      </c>
+      <c r="D66" t="s">
+        <v>49</v>
+      </c>
+      <c r="E66" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>5211</v>
+      </c>
+      <c r="B67" s="2">
+        <v>22.17</v>
+      </c>
+      <c r="C67" t="s">
+        <v>37</v>
+      </c>
+      <c r="D67" t="s">
+        <v>49</v>
+      </c>
+      <c r="E67" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>13219</v>
+      </c>
+      <c r="B68">
+        <v>18.05</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D68" t="s">
+        <v>29</v>
+      </c>
+      <c r="E68" s="6">
+        <v>11</v>
+      </c>
+      <c r="F68" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" s="2">
+        <v>10434</v>
+      </c>
+      <c r="B69" s="2">
+        <v>18.38</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D69" t="s">
+        <v>87</v>
+      </c>
+      <c r="E69" s="6">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>3873</v>
+      </c>
+      <c r="B70">
+        <v>35.83</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D70" t="s">
+        <v>29</v>
+      </c>
+      <c r="E70" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" s="2">
         <v>5773</v>
       </c>
-      <c r="B47" s="2">
+      <c r="B71" s="2">
         <v>15.89</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C71" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D47" t="s">
-        <v>87</v>
-      </c>
-      <c r="E47" s="1">
+      <c r="D71" t="s">
+        <v>87</v>
+      </c>
+      <c r="E71" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" s="2">
-        <v>6148</v>
-      </c>
-      <c r="B48" s="2">
-        <v>51.03</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D48" t="s">
-        <v>87</v>
-      </c>
-      <c r="E48" s="7">
-        <v>23</v>
-      </c>
-      <c r="F48" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" s="2">
-        <v>6982</v>
-      </c>
-      <c r="B49" s="2">
-        <v>68.72</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D49" t="s">
-        <v>87</v>
-      </c>
-      <c r="E49" s="1">
-        <v>8</v>
-      </c>
-      <c r="F49" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="2">
-        <v>7316</v>
-      </c>
-      <c r="B50" s="2">
-        <v>114.04</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D50" t="s">
-        <v>87</v>
-      </c>
-      <c r="E50" s="1">
-        <v>2</v>
-      </c>
-      <c r="F50" t="s">
-        <v>106</v>
-      </c>
-      <c r="G50" t="s">
-        <v>101</v>
-      </c>
-      <c r="H50" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" s="2">
-        <v>8404</v>
-      </c>
-      <c r="B51" s="2">
-        <v>64.400000000000006</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D51" t="s">
-        <v>87</v>
-      </c>
-      <c r="E51" s="1">
-        <v>16</v>
-      </c>
-      <c r="G51" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" s="2">
-        <v>8804</v>
-      </c>
-      <c r="B52" s="2">
-        <v>10.17</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D52" t="s">
-        <v>87</v>
-      </c>
-      <c r="E52" s="1">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" s="2">
-        <v>8865</v>
-      </c>
-      <c r="B53" s="2">
-        <v>71.900000000000006</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D53" t="s">
-        <v>87</v>
-      </c>
-      <c r="E53" s="7">
-        <v>11</v>
-      </c>
-      <c r="F53" t="s">
-        <v>89</v>
-      </c>
-      <c r="G53" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="2">
-        <v>9578</v>
-      </c>
-      <c r="B54" s="2">
-        <v>24.41</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D54" t="s">
-        <v>87</v>
-      </c>
-      <c r="E54" s="1">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" s="2">
+        <v>13217</v>
+      </c>
+      <c r="B72" s="2">
+        <v>15.39</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D72" t="s">
+        <v>87</v>
+      </c>
+      <c r="E72" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>13215</v>
+      </c>
+      <c r="B73">
+        <v>15.09</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" s="2">
-        <v>9614</v>
-      </c>
-      <c r="B55" s="2">
-        <v>92.93</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D55" t="s">
-        <v>87</v>
-      </c>
-      <c r="E55" s="1">
-        <v>3</v>
-      </c>
-      <c r="F55" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" s="2">
-        <v>10148</v>
-      </c>
-      <c r="B56" s="2">
-        <v>25.12</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D56" t="s">
-        <v>87</v>
-      </c>
-      <c r="E56" s="7">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57" s="2">
-        <v>10150</v>
-      </c>
-      <c r="B57" s="2">
-        <v>41.68</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D57" t="s">
-        <v>87</v>
-      </c>
-      <c r="E57" s="7">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" s="2">
-        <v>10320</v>
-      </c>
-      <c r="B58" s="2">
-        <v>-8.19</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D58" t="s">
-        <v>87</v>
-      </c>
-      <c r="E58" s="7">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A59" s="2">
-        <v>10434</v>
-      </c>
-      <c r="B59" s="2">
-        <v>18.38</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D59" t="s">
-        <v>87</v>
-      </c>
-      <c r="E59" s="7">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A60" s="2">
-        <v>11039</v>
-      </c>
-      <c r="B60" s="2">
-        <v>30.95</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D60" t="s">
-        <v>87</v>
-      </c>
-      <c r="E60" s="7">
-        <v>5</v>
-      </c>
-      <c r="F60" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61" s="2">
-        <v>11101</v>
-      </c>
-      <c r="B61" s="2">
-        <v>48.16</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D61" t="s">
-        <v>87</v>
-      </c>
-      <c r="E61" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A62" s="2">
-        <v>11201</v>
-      </c>
-      <c r="B62" s="2">
-        <v>53.15</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D62" t="s">
-        <v>87</v>
-      </c>
-      <c r="E62" s="1">
-        <v>4</v>
-      </c>
-      <c r="F62" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A63" s="2">
-        <v>11311</v>
-      </c>
-      <c r="B63" s="2">
-        <v>92.25</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D63" t="s">
-        <v>87</v>
-      </c>
-      <c r="E63" s="1">
-        <v>1</v>
-      </c>
-      <c r="F63" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A64" s="2">
-        <v>12009</v>
-      </c>
-      <c r="B64" s="2">
-        <v>23.35</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D64" t="s">
-        <v>87</v>
-      </c>
-      <c r="E64" s="1">
-        <v>12</v>
-      </c>
-      <c r="F64" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A65" s="2">
-        <v>13050</v>
-      </c>
-      <c r="B65" s="2">
-        <v>25.75</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D65" t="s">
-        <v>87</v>
-      </c>
-      <c r="E65" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A66" s="2">
-        <v>13117</v>
-      </c>
-      <c r="B66" s="2">
-        <v>39.840000000000003</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D66" t="s">
-        <v>87</v>
-      </c>
-      <c r="E66" s="7">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A67" s="2">
-        <v>13217</v>
-      </c>
-      <c r="B67" s="2">
-        <v>15.39</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D67" t="s">
-        <v>87</v>
-      </c>
-      <c r="E67" s="1">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A68" s="2">
-        <v>13220</v>
-      </c>
-      <c r="B68" s="2">
-        <v>23.49</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D68" t="s">
-        <v>87</v>
-      </c>
-      <c r="E68" s="1">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A69" s="2">
-        <v>13221</v>
-      </c>
-      <c r="B69" s="2">
-        <v>12.84</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D69" t="s">
-        <v>87</v>
-      </c>
-      <c r="E69" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A70" s="2">
-        <v>13223</v>
-      </c>
-      <c r="B70" s="2">
-        <v>-15.46</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D70" t="s">
-        <v>87</v>
-      </c>
-      <c r="E70" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A71" s="2">
-        <v>13230</v>
-      </c>
-      <c r="B71" s="2">
-        <v>153.07</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D71" t="s">
-        <v>87</v>
-      </c>
-      <c r="E71" s="7">
-        <v>9</v>
-      </c>
-      <c r="F71" t="s">
-        <v>107</v>
-      </c>
-      <c r="G71" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A72" s="2">
-        <v>13345</v>
-      </c>
-      <c r="B72" s="2">
-        <v>66.31</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D72" t="s">
-        <v>87</v>
-      </c>
-      <c r="E72" s="1">
-        <v>13</v>
-      </c>
-      <c r="F72" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A73">
-        <v>3873</v>
-      </c>
-      <c r="B73">
-        <v>35.83</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="D73" t="s">
         <v>29</v>
       </c>
-      <c r="E73" s="7">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E73" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74">
+        <v>13328</v>
+      </c>
+      <c r="B74">
+        <v>12.85</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D74" t="s">
+        <v>30</v>
+      </c>
+      <c r="E74" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" s="2">
+        <v>13221</v>
+      </c>
+      <c r="B75" s="2">
+        <v>12.84</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D75" t="s">
+        <v>87</v>
+      </c>
+      <c r="E75" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>13218</v>
+      </c>
+      <c r="B76">
+        <v>12.22</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D76" t="s">
+        <v>58</v>
+      </c>
+      <c r="E76" s="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77" s="2">
+        <v>8804</v>
+      </c>
+      <c r="B77" s="2">
+        <v>10.17</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D77" t="s">
+        <v>87</v>
+      </c>
+      <c r="E77" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>11256</v>
+      </c>
+      <c r="B78" s="2">
+        <v>10.039999999999999</v>
+      </c>
+      <c r="C78" t="s">
+        <v>44</v>
+      </c>
+      <c r="D78" t="s">
+        <v>49</v>
+      </c>
+      <c r="E78" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79">
         <v>6357</v>
       </c>
-      <c r="B74">
+      <c r="B79">
         <v>25.16</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C79" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="D74" t="s">
-        <v>29</v>
-      </c>
-      <c r="E74" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A75">
-        <v>9657</v>
-      </c>
-      <c r="B75">
-        <v>32.49</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D75" t="s">
-        <v>29</v>
-      </c>
-      <c r="E75" s="7">
-        <v>6</v>
-      </c>
-      <c r="F75" t="s">
-        <v>94</v>
-      </c>
-      <c r="G75" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A76">
-        <v>10163</v>
-      </c>
-      <c r="B76">
-        <v>44.48</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D76" t="s">
-        <v>29</v>
-      </c>
-      <c r="E76" s="7">
-        <v>8</v>
-      </c>
-      <c r="F76" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A77">
-        <v>11387</v>
-      </c>
-      <c r="B77">
-        <v>37.14</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D77" t="s">
-        <v>29</v>
-      </c>
-      <c r="E77" s="7">
-        <v>3</v>
-      </c>
-      <c r="F77" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A78">
-        <v>11920</v>
-      </c>
-      <c r="B78">
-        <v>75.47</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D78" t="s">
-        <v>29</v>
-      </c>
-      <c r="E78" s="1">
-        <v>4</v>
-      </c>
-      <c r="F78" t="s">
-        <v>97</v>
-      </c>
-      <c r="G78" t="s">
-        <v>101</v>
-      </c>
-      <c r="H78" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A79">
-        <v>12027</v>
-      </c>
-      <c r="B79">
-        <v>9.85</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="D79" t="s">
         <v>29</v>
       </c>
       <c r="E79" s="1">
-        <v>5</v>
-      </c>
-      <c r="F79" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>12105</v>
+        <v>12962</v>
       </c>
       <c r="B80">
-        <v>39.39</v>
+        <v>6.64</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D80" t="s">
-        <v>29</v>
-      </c>
-      <c r="E80" s="7">
-        <v>10</v>
+        <v>30</v>
+      </c>
+      <c r="E80" s="1">
+        <v>16</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>12224</v>
+        <v>12804</v>
       </c>
       <c r="B81">
-        <v>0.11</v>
+        <v>4.3</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E81" s="1">
-        <v>15</v>
+        <v>3</v>
+      </c>
+      <c r="F81" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>12869</v>
+        <v>12224</v>
       </c>
       <c r="B82">
-        <v>70.16</v>
+        <v>0.11</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D82" t="s">
         <v>29</v>
       </c>
       <c r="E82" s="1">
-        <v>1</v>
-      </c>
-      <c r="F82" t="s">
-        <v>91</v>
+        <v>15</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>13035</v>
+        <v>11689</v>
       </c>
       <c r="B83">
-        <v>20.69</v>
+        <v>-3.42</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="D83" t="s">
-        <v>29</v>
-      </c>
-      <c r="E83" s="1">
-        <v>7</v>
+        <v>58</v>
+      </c>
+      <c r="E83" s="11">
+        <v>11</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>13215</v>
-      </c>
-      <c r="B84">
-        <v>15.09</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>18</v>
+        <v>548</v>
+      </c>
+      <c r="B84" s="2">
+        <v>-4.78</v>
+      </c>
+      <c r="C84" t="s">
+        <v>34</v>
       </c>
       <c r="D84" t="s">
-        <v>29</v>
-      </c>
-      <c r="E84" s="1">
-        <v>13</v>
+        <v>49</v>
+      </c>
+      <c r="E84" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>13218</v>
+        <v>2891</v>
       </c>
       <c r="B85">
-        <v>27.66</v>
+        <v>-8.06</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D85" t="s">
-        <v>29</v>
-      </c>
-      <c r="E85" s="7">
-        <v>9</v>
+        <v>30</v>
+      </c>
+      <c r="E85" s="1">
+        <v>15</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A86">
-        <v>13219</v>
-      </c>
-      <c r="B86">
-        <v>18.05</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>16</v>
+      <c r="A86" s="2">
+        <v>10320</v>
+      </c>
+      <c r="B86" s="2">
+        <v>-8.19</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="D86" t="s">
-        <v>29</v>
-      </c>
-      <c r="E86" s="7">
-        <v>11</v>
-      </c>
-      <c r="F86" t="s">
-        <v>89</v>
+        <v>87</v>
+      </c>
+      <c r="E86" s="6">
+        <v>25</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A87">
-        <v>13356</v>
-      </c>
-      <c r="B87">
-        <v>55.59</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>15</v>
+      <c r="A87" s="2">
+        <v>13223</v>
+      </c>
+      <c r="B87" s="2">
+        <v>-15.46</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>84</v>
       </c>
       <c r="D87" t="s">
-        <v>29</v>
+        <v>87</v>
       </c>
       <c r="E87" s="1">
-        <v>2</v>
-      </c>
-      <c r="F87" t="s">
-        <v>92</v>
+        <v>24</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
